--- a/fpga_pins.xlsx
+++ b/fpga_pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\files\Projects\sudoku\FPGA-based-Sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39158D6-172E-47ED-B14C-605E2F506147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB80B100-A2DA-4873-A1D7-2D52493ACB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17832" yWindow="2004" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="J4 (bemicro)" sheetId="2" r:id="rId1"/>
@@ -20,17 +20,26 @@
     <sheet name="jumper mapping" sheetId="11" r:id="rId5"/>
     <sheet name="edge" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="256">
   <si>
     <t>GPIO_01</t>
   </si>
@@ -756,13 +765,55 @@
   </si>
   <si>
     <t>-&gt; J4</t>
+  </si>
+  <si>
+    <t>extract number eg</t>
+  </si>
+  <si>
+    <t>name quartus schematic</t>
+  </si>
+  <si>
+    <t>set variable text</t>
+  </si>
+  <si>
+    <t>set name variable</t>
+  </si>
+  <si>
+    <t>means double checked</t>
+  </si>
+  <si>
+    <t>name design</t>
+  </si>
+  <si>
+    <t>means confident but not 100%</t>
+  </si>
+  <si>
+    <t>DIG_ON</t>
+  </si>
+  <si>
+    <t>ROW_ON</t>
+  </si>
+  <si>
+    <t>COL_ON</t>
+  </si>
+  <si>
+    <t>correct name</t>
+  </si>
+  <si>
+    <t>reversed connected</t>
+  </si>
+  <si>
+    <t>EG_59</t>
+  </si>
+  <si>
+    <t>EG_58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,8 +854,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,7 +886,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,38 +937,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,251 +1027,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>936172</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>576944</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Arrow: Right 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23848F4B-084A-49DD-9D4C-C084BDB10FE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3984172" y="370115"/>
-          <a:ext cx="1164772" cy="533399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>936172</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>576944</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Arrow: Right 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8960E6A4-7E92-48A5-9896-A4175F4DCB38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3984172" y="1262744"/>
-          <a:ext cx="1164772" cy="533399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>957944</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>141515</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>598716</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Arrow: Right 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D23B5DE0-07E9-4086-8ED3-F4F7CF5A28C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4005944" y="2362201"/>
-          <a:ext cx="1164772" cy="533399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>849087</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>489859</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Arrow: Right 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C98DE8-D33F-44B3-ABB5-63B11BA8052B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3897087" y="4811487"/>
-          <a:ext cx="1164772" cy="533399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1406,7 +1295,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+      <selection activeCell="A8" sqref="A8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2099,27 +1988,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5F03A8-514C-42F5-BEEA-D3D09A43BFB2}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2127,15 +2020,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="28" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2143,15 +2039,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="28" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2159,15 +2058,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="28" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2175,15 +2077,18 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="28" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2191,15 +2096,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="28" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2207,15 +2115,18 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2223,7 +2134,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2231,7 +2142,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2441,6 +2352,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2449,7 +2361,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2793,1961 +2705,3415 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0117D2E-CF45-4AE4-9882-98A19CDB3469}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="11" customWidth="1"/>
-    <col min="5" max="6" width="18.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.88671875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="L1" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>234</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="6" t="s">
         <v>236</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="J2" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="15">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="14"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="20">
+        <v>40</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="K7" s="9" t="str">
+        <f>"set " &amp; B7 &amp; " " &amp; F7 &amp; " "</f>
+        <v xml:space="preserve">set GPIO_A RSTGAME </v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="20">
+        <v>39</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="K8" s="9" t="str">
+        <f>"set " &amp; B8 &amp; " " &amp; F8 &amp; " "</f>
+        <v xml:space="preserve">set GPIO_B DIFFEASY </v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="14"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="14"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="14"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="14"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="20">
+        <v>38</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="K13" s="18" t="str">
+        <f t="shared" ref="K13:K18" si="0">"set " &amp; B13 &amp; " " &amp; F13 &amp; " "</f>
+        <v xml:space="preserve">set LVDS_TX_B- CHECKANS </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="20">
+        <v>37</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="K14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">set LVDS_TX_B+ DIFFMED </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="20">
+        <v>36</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="K15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">set LVDS_TX_A- NEWGAME </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="20">
+        <v>35</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="K16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">set LVDS_TX_A+ DIFFHARD </v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="20">
+        <v>34</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="K17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">set LVDS_TX_9- WRONG </v>
+      </c>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="20">
+        <v>33</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="K18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">set LVDS_TX_9+ DIFFSET </v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="20">
+        <v>28</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="B20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="20">
+        <v>30</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
         <v>19</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="20">
+        <v>32</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="K21" s="9" t="str">
+        <f>"set " &amp; B21 &amp; " " &amp; F21 &amp; " "</f>
+        <v xml:space="preserve">set LVDS_TX_8- CORRECT </v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
         <v>20</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="20">
+        <v>31</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="K22" s="9" t="str">
+        <f>"set " &amp; B22 &amp; " " &amp; F22 &amp; " "</f>
+        <v xml:space="preserve">set LVDS_TX_8+ GIVEUP </v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
         <v>21</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="20">
+        <v>23</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="K23" s="9" t="str">
+        <f>"set " &amp; B23 &amp; " " &amp; G23 &amp; " "</f>
+        <v xml:space="preserve">set LVDS_TX_7- COL_ON </v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
         <v>22</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="20">
+        <v>25</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="12" t="str">
+        <f>"keyboard_in["&amp; MID(F24,4,1) &amp;"]"</f>
+        <v>keyboard_in[1]</v>
+      </c>
+      <c r="K24" s="9" t="str">
+        <f t="shared" ref="K24:K26" si="1">"set " &amp; B24 &amp; " " &amp; G24 &amp; " "</f>
+        <v xml:space="preserve">set LVDS_TX_7+ keyboard_in[1] </v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="20">
+        <v>19</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="12" t="str">
+        <f t="shared" ref="G25:G26" si="2">"keyboard_in["&amp; MID(F25,4,1) &amp;"]"</f>
+        <v>keyboard_in[3]</v>
+      </c>
+      <c r="K25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">set LVDS_TX_6- keyboard_in[3] </v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="20">
+        <v>21</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>keyboard_in[2]</v>
+      </c>
+      <c r="K26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">set LVDS_TX_6+ keyboard_in[2] </v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="B27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="14"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="B28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="14"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
         <v>27</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="20">
+        <v>18</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="12" t="str">
+        <f>"column_select["&amp; MID(F29,7,1) &amp;"]"</f>
+        <v>column_select[8]</v>
+      </c>
+      <c r="K29" s="9" t="str">
+        <f t="shared" ref="K29:K34" si="3">"set " &amp; B29 &amp; " " &amp; G29 &amp; " "</f>
+        <v xml:space="preserve">set LVDS_TX_5- column_select[8] </v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="20">
+        <v>19</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="12" t="str">
+        <f>"keyboard_in["&amp; MID(F30,4,1) &amp;"]"</f>
+        <v>keyboard_in[4]</v>
+      </c>
+      <c r="K30" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">set LVDS_TX_5+ keyboard_in[4] </v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="20">
+        <v>16</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="12" t="str">
+        <f>"column_select["&amp; MID(F31,7,1) &amp;"]"</f>
+        <v>column_select[7]</v>
+      </c>
+      <c r="K31" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">set LVDS_TX_4- column_select[7] </v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="20">
+        <v>13</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="12" t="str">
+        <f t="shared" ref="G32" si="4">"keyboard_in["&amp; MID(F32,4,1) &amp;"]"</f>
+        <v>keyboard_in[5]</v>
+      </c>
+      <c r="K32" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">set LVDS_TX_4+ keyboard_in[5] </v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="17">
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="20">
+        <v>14</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="12" t="str">
+        <f>"column_select["&amp; MID(F33,7,1) &amp;"]"</f>
+        <v>column_select[6]</v>
+      </c>
+      <c r="K33" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">set LVDS_TX_3- column_select[6] </v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="20">
+        <v>11</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="12" t="str">
+        <f t="shared" ref="G34" si="5">"keyboard_in["&amp; MID(F34,4,1) &amp;"]"</f>
+        <v>keyboard_in[6]</v>
+      </c>
+      <c r="K34" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">set LVDS_TX_3+ keyboard_in[6] </v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="B35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="14"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="B36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="14"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="17">
         <v>35</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="20">
+        <v>12</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="12" t="str">
+        <f>"column_select["&amp; MID(F37,7,1) &amp;"]"</f>
+        <v>column_select[0]</v>
+      </c>
+      <c r="K37" s="9" t="str">
+        <f t="shared" ref="K37:K42" si="6">"set " &amp; B37 &amp; " " &amp; G37 &amp; " "</f>
+        <v xml:space="preserve">set LVDS_TX_2- column_select[0] </v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="17">
         <v>36</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="20">
+        <v>9</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="K38" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">set LVDS_TX_2+ DIG_ON </v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
         <v>37</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="20">
+        <v>10</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="12" t="str">
+        <f>"column_select["&amp; MID(F39,7,1) &amp;"]"</f>
+        <v>column_select[1]</v>
+      </c>
+      <c r="K39" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">set LVDS_TX_1- column_select[1] </v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="17">
         <v>38</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="20">
+        <v>7</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K40" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">set LVDS_TX_1+ ROW_ON </v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="17">
         <v>39</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="20">
+        <v>8</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="12" t="str">
+        <f>"column_select["&amp; MID(F41,7,1) &amp;"]"</f>
+        <v>column_select[2]</v>
+      </c>
+      <c r="K41" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">set LVDS_TX_0- column_select[2] </v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="17">
         <v>40</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="21">
+        <v>5</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="12" t="str">
+        <f t="shared" ref="G42" si="7">"keyboard_in["&amp; MID(F42,4,1) &amp;"]"</f>
+        <v>keyboard_in[7]</v>
+      </c>
+      <c r="K42" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">set LVDS_TX_0+ keyboard_in[7] </v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C43" s="6" t="s">
         <v>233</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="11">
+      <c r="B44" s="33"/>
+      <c r="C44" s="17">
         <v>1</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="11">
+      <c r="H44" s="20">
+        <v>33</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J44" s="1" t="str">
+        <f>"row_" &amp; MID(I44, 8,1) &amp; "[" &amp; MID(I44,12,1) &amp;"]"</f>
+        <v>row_2[4]</v>
+      </c>
+      <c r="K44" s="9" t="str">
+        <f>"set " &amp; D44 &amp; " " &amp; J44 &amp; " "</f>
+        <v xml:space="preserve">set GPIO_01 row_2[4] </v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="17">
         <v>2</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="11">
+      <c r="H45" s="20">
+        <v>31</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J45" s="1" t="str">
+        <f t="shared" ref="J45:J53" si="8">"row_" &amp; MID(I45, 8,1) &amp; "[" &amp; MID(I45,12,1) &amp;"]"</f>
+        <v>row_2[3]</v>
+      </c>
+      <c r="K45" s="9" t="str">
+        <f t="shared" ref="K45:K53" si="9">"set " &amp; D45 &amp; " " &amp; J45 &amp; " "</f>
+        <v xml:space="preserve">set GPIO_02 row_2[3] </v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="17">
         <v>3</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="11">
+      <c r="H46" s="20">
+        <v>29</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>row_2[7]</v>
+      </c>
+      <c r="K46" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">set GPIO_03 row_2[7] </v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="17">
         <v>4</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="11">
+      <c r="H47" s="20">
+        <v>28</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J47" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>row_2[2]</v>
+      </c>
+      <c r="K47" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">set GPIO_04 row_2[2] </v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="17">
         <v>5</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="11">
+      <c r="H48" s="20">
+        <v>27</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>row_2[6]</v>
+      </c>
+      <c r="K48" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">set GPIO_05 row_2[6] </v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="17">
         <v>6</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="11">
+      <c r="H49" s="20">
+        <v>26</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J49" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>row_2[1]</v>
+      </c>
+      <c r="K49" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">set GPIO_06 row_2[1] </v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="17">
         <v>7</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="11">
+      <c r="H50" s="20">
+        <v>25</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J50" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>row_2[5]</v>
+      </c>
+      <c r="K50" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">set GPIO_07 row_2[5] </v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="17">
         <v>8</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="11">
+      <c r="H51" s="20">
+        <v>23</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J51" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>row_2[0]</v>
+      </c>
+      <c r="K51" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">set GPIO_08 row_2[0] </v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="17">
         <v>9</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="11">
+      <c r="H52" s="20">
+        <v>21</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J52" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>row_1[4]</v>
+      </c>
+      <c r="K52" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">set GPIO_09 row_1[4] </v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="17">
         <v>10</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="11">
-        <v>11</v>
-      </c>
-      <c r="D54" s="11" t="s">
+      <c r="H53" s="20">
+        <v>20</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J53" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>row_1[3]</v>
+      </c>
+      <c r="K53" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">set GPIO_10 row_1[3] </v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="8">
+        <v>11</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="11">
+      <c r="E54" s="20">
+        <v>26</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="8">
         <v>12</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="11">
+      <c r="D55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="20">
+        <v>36</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="17">
         <v>13</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="11">
+      <c r="E56" s="9"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="20">
+        <v>19</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J56" s="1" t="str">
+        <f t="shared" ref="J56:J69" si="10">"row_" &amp; MID(I56, 8,1) &amp; "[" &amp; MID(I56,12,1) &amp;"]"</f>
+        <v>row_1[7]</v>
+      </c>
+      <c r="K56" s="9" t="str">
+        <f t="shared" ref="K56:K68" si="11">"set " &amp; D56 &amp; " " &amp; J56 &amp; " "</f>
+        <v xml:space="preserve">set GPIO_11 row_1[7] </v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="17">
         <v>14</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="11">
+      <c r="E57" s="9"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="20">
+        <v>17</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J57" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>row_1[2]</v>
+      </c>
+      <c r="K57" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">set GPIO_12 row_1[2] </v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="17">
         <v>15</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="11">
+      <c r="E58" s="9"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="22">
         <v>16</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="I58" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>row_1[6]</v>
+      </c>
+      <c r="K58" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">set DIFF_RX_B+ row_1[6] </v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="17">
+        <v>16</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="11">
+      <c r="E59" s="9"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="22">
+        <v>15</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J59" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>row_1[1]</v>
+      </c>
+      <c r="K59" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">set DIFF_RX_B- row_1[1] </v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="17">
         <v>17</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="11">
+      <c r="E60" s="9"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="22">
+        <v>13</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J60" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>row_1[5]</v>
+      </c>
+      <c r="K60" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">set DIFF_RX_A+ row_1[5] </v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="17">
         <v>18</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="11">
+      <c r="E61" s="9"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="22">
+        <v>12</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="J61" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>row_0[4]</v>
+      </c>
+      <c r="K61" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">set DIFF_RX_A- row_0[4] </v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="17">
         <v>19</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="11">
+      <c r="E62" s="9"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="22">
+        <v>11</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J62" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>row_1[0]</v>
+      </c>
+      <c r="K62" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">set DIFF_RX_9+ row_1[0] </v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="17">
         <v>20</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="11">
+      <c r="E63" s="9"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="22">
+        <v>9</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="J63" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>row_0[3]</v>
+      </c>
+      <c r="K63" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">set DIFF_RX_9- row_0[3] </v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="17">
         <v>21</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="11">
+      <c r="E64" s="9"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="22">
+        <v>8</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J64" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>row_0[2]</v>
+      </c>
+      <c r="K64" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">set DIFF_RX_8+ row_0[2] </v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="17">
         <v>22</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="11">
+      <c r="E65" s="9"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="22">
+        <v>7</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J65" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>row_0[7]</v>
+      </c>
+      <c r="K65" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">set DIFF_RX_8- row_0[7] </v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="17">
         <v>23</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="11">
+      <c r="E66" s="9"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="22">
+        <v>5</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J66" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>row_0[6]</v>
+      </c>
+      <c r="K66" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">set DIFF_RX_7+ row_0[6] </v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="17">
         <v>24</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="11">
+      <c r="E67" s="9"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="22">
+        <v>4</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="J67" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>row_0[1]</v>
+      </c>
+      <c r="K67" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">set DIFF_RX_7- row_0[1] </v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="17">
         <v>25</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="11">
+      <c r="E68" s="9"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="22">
+        <v>3</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J68" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>row_0[5]</v>
+      </c>
+      <c r="K68" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">set DIFF_RX_6+ row_0[5] </v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="17">
         <v>26</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="11">
+      <c r="E69" s="9"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="22">
+        <v>1</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J69" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>row_0[0]</v>
+      </c>
+      <c r="K69" s="9" t="str">
+        <f>"set " &amp; D69 &amp; " " &amp; J69 &amp; " "</f>
+        <v xml:space="preserve">set DIFF_RX_6- row_0[0] </v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="17">
         <v>27</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="11">
+      <c r="E70" s="9"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="14"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="9"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="17">
         <v>28</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="11">
+      <c r="E71" s="9"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="14"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="9"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="8">
         <v>29</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="11">
+      <c r="E72" s="9"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="14"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="9"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="8">
         <v>30</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="11">
+      <c r="D73" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="14"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="9"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="17">
         <v>31</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="11">
+      <c r="E74" s="9"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="14"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="9"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="17">
         <v>32</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="11">
+      <c r="E75" s="9"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="14"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="9"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="17">
         <v>33</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="11">
+      <c r="E76" s="9"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="14"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="9"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="17">
         <v>34</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="11">
+      <c r="E77" s="9"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="14"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="9"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="17">
         <v>35</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="11">
+      <c r="E78" s="20">
+        <v>27</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G78" s="12" t="str">
+        <f t="shared" ref="G78" si="12">"keyboard_in["&amp; MID(F78,4,1) &amp;"]"</f>
+        <v>keyboard_in[0]</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="9" t="str">
+        <f>"set " &amp; D78 &amp; " " &amp; G78 &amp; " "</f>
+        <v xml:space="preserve">set DIFF_RX_2+ keyboard_in[0] </v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="17">
         <v>36</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="11">
+      <c r="E79" s="21">
+        <v>6</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G79" s="12" t="str">
+        <f>"column_select["&amp; MID(F79,7,1) &amp;"]"</f>
+        <v>column_select[3]</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="9" t="str">
+        <f t="shared" ref="K79:K83" si="13">"set " &amp; D79 &amp; " " &amp; G79 &amp; " "</f>
+        <v xml:space="preserve">set DIFF_RX_2- column_select[3] </v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="17">
         <v>37</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="11">
+      <c r="E80" s="20">
+        <v>3</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G80" s="12" t="str">
+        <f t="shared" ref="G80" si="14">"keyboard_in["&amp; MID(F80,4,1) &amp;"]"</f>
+        <v>keyboard_in[8]</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">set DIFF_RX_1+ keyboard_in[8] </v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="17">
         <v>38</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="11">
+      <c r="E81" s="21">
+        <v>4</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81" s="12" t="str">
+        <f>"column_select["&amp; MID(F81,7,1) &amp;"]"</f>
+        <v>column_select[4]</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">set DIFF_RX_1- column_select[4] </v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="17">
         <v>39</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="11">
+      <c r="E82" s="20">
+        <v>1</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G82" s="12" t="str">
+        <f t="shared" ref="G82" si="15">"keyboard_in["&amp; MID(F82,4,1) &amp;"]"</f>
+        <v>keyboard_in[9]</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">set DIFF_RX_0+ keyboard_in[9] </v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="17">
         <v>40</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
+      <c r="E83" s="20">
+        <v>2</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G83" s="12" t="str">
+        <f>"column_select["&amp; MID(F83,7,1) &amp;"]"</f>
+        <v>column_select[5]</v>
+      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">set DIFF_RX_0- column_select[5] </v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="E84" s="9"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="C2:D42"/>
     <mergeCell ref="A44:B84"/>
+    <mergeCell ref="E1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G32" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138B377F-ECCC-44AE-A024-DDE63725B5DC}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="E1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>5</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="34">
+        <f t="shared" ref="C2:C33" si="0">VALUE(MID(B2, 5, 4))</f>
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="34" t="str">
+        <f>"row_" &amp; MID(D2, 8,1) &amp; "[" &amp; MID(D2,12,1) &amp;"]"</f>
+        <v>row_3[3]</v>
+      </c>
+      <c r="F2" s="35" t="str">
+        <f>"set " &amp; B2 &amp; " " &amp; E2 &amp; " "</f>
+        <v xml:space="preserve">set EG_P1 row_3[3] </v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
+        <v>7</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="34" t="str">
+        <f t="shared" ref="E3:E36" si="1">"row_" &amp; MID(D3, 8,1) &amp; "[" &amp; MID(D3,12,1) &amp;"]"</f>
+        <v>row_3[4]</v>
+      </c>
+      <c r="F3" s="35" t="str">
+        <f t="shared" ref="F3:F56" si="2">"set " &amp; B3 &amp; " " &amp; E3 &amp; " "</f>
+        <v xml:space="preserve">set EG_P2 row_3[4] </v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <v>9</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>row_4[0]</v>
+      </c>
+      <c r="F4" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P3 row_4[0] </v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <v>11</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>row_4[5]</v>
+      </c>
+      <c r="F5" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P4 row_4[5] </v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
+        <v>13</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>row_4[1]</v>
+      </c>
+      <c r="F6" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P5 row_4[1] </v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>15</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>row_4[6]</v>
+      </c>
+      <c r="F7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P6 row_4[6] </v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_4[2]</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P7 row_4[2] </v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_4[7]</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P8 row_4[7] </v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_4[3]</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P9 row_4[3] </v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_4[4]</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P10 row_4[4] </v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_5[0]</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P11 row_5[0] </v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_5[5]</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P12 row_5[5] </v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_5[1]</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P13 row_5[1] </v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_5[6]</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P14 row_5[6] </v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_5[2]</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P15 row_5[2] </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_6[2]</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P16 row_6[2] </v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_6[7]</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P17 row_6[7] </v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_6[3]</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P18 row_6[3] </v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_6[4]</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P19 row_6[4] </v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_7[0]</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P20 row_7[0] </v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_7[5]</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P21 row_7[5] </v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_7[1]</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P22 row_7[1] </v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_7[6]</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P23 row_7[6] </v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_7[2]</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P24 row_7[2] </v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_7[7]</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P25 row_7[7] </v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_7[3]</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P26 row_7[3] </v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_7[4]</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P27 row_7[4] </v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>65</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D29" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_8[0]</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P28 row_8[0] </v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_8[5]</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P29 row_8[5] </v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34">
+        <v>6</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="34">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>row_3[0]</v>
+      </c>
+      <c r="F31" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P35 row_3[0] </v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34">
+        <v>8</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="34">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>row_3[5]</v>
+      </c>
+      <c r="F32" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P36 row_3[5] </v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34">
+        <v>12</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="34">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>row_3[1]</v>
+      </c>
+      <c r="F33" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P37 row_3[1] </v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" ref="C34:C56" si="3">VALUE(MID(B34, 5, 4))</f>
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_3[6]</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P38 row_3[6] </v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_3[2]</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P39 row_3[2] </v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>row_3[7]</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P40 row_3[7] </v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>26</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>30</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>34</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>"row_" &amp; MID(D42, 8,1) &amp; "[" &amp; MID(D42,12,1) &amp;"]"</f>
+        <v>row_5[7]</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P46 row_5[7] </v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f t="shared" ref="E43:E45" si="4">"row_" &amp; MID(D43, 8,1) &amp; "[" &amp; MID(D43,12,1) &amp;"]"</f>
+        <v>row_5[3]</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P47 row_5[3] </v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>row_5[4]</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P48 row_5[4] </v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>row_6[0]</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P49 row_6[0] </v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E47" s="1" t="str">
+        <f>"row_" &amp; MID(D47, 8,1) &amp; "[" &amp; MID(D47,12,1) &amp;"]"</f>
+        <v>row_6[5]</v>
+      </c>
+      <c r="F47" t="str">
+        <f>"set " &amp; B47 &amp; " " &amp; E47 &amp; " "</f>
+        <v xml:space="preserve">set EG_P51 row_6[5] </v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f t="shared" ref="E48:E49" si="5">"row_" &amp; MID(D48, 8,1) &amp; "[" &amp; MID(D48,12,1) &amp;"]"</f>
+        <v>row_6[1]</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P52 row_6[1] </v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>row_6[6]</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P53 row_6[6] </v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f>"row_" &amp; MID(D51, 8,1) &amp; "[" &amp; MID(D51,12,1) &amp;"]"</f>
+        <v>row_8[1]</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P55 row_8[1] </v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f t="shared" ref="E52:E56" si="6">"row_" &amp; MID(D52, 8,1) &amp; "[" &amp; MID(D52,12,1) &amp;"]"</f>
+        <v>row_8[6]</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P56 row_8[6] </v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="34">
+        <v>60</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="34">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>row_8[2]</v>
+      </c>
+      <c r="F53" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P57 row_8[2] </v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>62</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>row_8[7]</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P58 row_8[7] </v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>64</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>row_8[3]</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P59 row_8[3] </v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>66</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D56" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>row_8[4]</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">set EG_P60 row_8[4] </v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>21</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>22</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>32</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>33</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>44</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
       <c r="B68" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C82">
-    <sortCondition ref="A2:A82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" caseSensitive="1" ref="A2:D84">
+    <sortCondition ref="C2:C84"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
